--- a/2025-08-25_Sample_Table_Costs.xlsx
+++ b/2025-08-25_Sample_Table_Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\CostsViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F731CC-D383-48B3-A2C2-F4E3A815F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{869E618A-2174-4896-ABCE-CFAC58FACE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C337D31B-D416-415F-B1D8-EC06242CC32C}"/>
   </bookViews>
@@ -20,285 +20,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
-  <si>
-    <t>Project ID: string;Project Title: string;Project Types (JSONB): JSON List of Types;Total area integer in square meters;Total Costs KG220  in Euro;Total Costs KG410 in Euro;Total Costs KG420 in Euro;Total Costs KG434 in Euro;Total Costs KG430 in Euro;Total Costs KG440 in Euro;Total Costs KG450 in Euro;Total Costs KG460 in Euro;Total Costs KG480 in Euro;Total Costs KG550 in Euro;Costs per square meter KG220  in Euro per square meter;Costs per square meter KG410 in Euro per square meter;Costs per square meter KG420 in Euro per square meter;Costs per square meter KG434 in Euro per square meter;Costs per square meter KG430 in Euro per square meter;Costs per square meter KG440 in Euro per square meter;Costs per square meter KG450 in Euro per square meter;Costs per square meter KG460 in Euro per square meter;Costs per square meter KG480 in Euro per square meter;Costs per square meter KG550 in Euro per square meter</t>
-  </si>
-  <si>
-    <t>PRJ-2025-001;Riverview Apartments;"[""Commercial""]";1086;401820;87966;95568;15204;46698;68418;83622;41268;7602;24978;370;81;88;14;43;63;77;38;7;23</t>
-  </si>
-  <si>
-    <t>PRJ-2025-002;Maplewood Offices;"[""Hospitality""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""]";1635;452895;125895;145515;42510;53955;89925;68670;52320;29430;19620;277;77;89;26;33;55;42;32;18;12</t>
-  </si>
-  <si>
-    <t>PRJ-2025-003;Lakeside Retail Center;"[""Mixed-Use""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Education""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""]";2548;792428;264992;262444;45864;124852;84084;198744;50960;20384;17836;311;104;103;18;49;33;78;20;8;7</t>
-  </si>
-  <si>
-    <t>PRJ-2025-004;Grand Oak Logistics Park;"[""Hospitality""]";2979;1230327;280026;408123;53622;104265;196614;175761;80433;23832;50643;413;94;137;18;35;66;59;27;8;17</t>
-  </si>
-  <si>
-    <t>PRJ-2025-005;Cedar Grove School Campus;"[""Commercial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Renovation""]";4350;1805250;321900;652500;52200;152250;269700;191400;147900;60900;30450;415;74;150;12;35;62;44;34;14;7</t>
-  </si>
-  <si>
-    <t>PRJ-2025-006;Hillcrest Medical Center;"[""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Commercial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""]";5969;2757678;573024;477520;125349;447675;196977;429768;107442;41783;143256;462;96;80;21;75;33;72;18;7;24</t>
-  </si>
-  <si>
-    <t>PRJ-2025-007;Brookfield Hotel;"[""Office""]";8293;2944015;580510;986867;182446;530752;655147;580510;265376;99516;124395;355;70;119;22;64;79;70;32;12;15</t>
-  </si>
-  <si>
-    <t>PRJ-2025-008;Fairview Mixed-Use Complex;"[""Residential""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Industrial""]";10683;2628018;961470;1185813;192294;405954;352539;940104;427320;160245;117513;246;90;111;18;38;33;88;40;15;11</t>
-  </si>
-  <si>
-    <t>PRJ-2025-009;Pinecrest Civic Center;"[""Mixed-Use""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""New Build""]";11835;4319775;792945;1076985;390555;1159830;426060;911295;331380;213030;272205;365;67;91;33;98;36;77;28;18;23</t>
-  </si>
-  <si>
-    <t>PRJ-2025-010;Willow Springs Innovation Hub;"[""Hospitality""]";14982;5123844;1003794;1872750;374550;614262;1018776;494406;554334;119856;134838;342;67;125;25;41;68;33;37;8;9</t>
-  </si>
-  <si>
-    <t>PRJ-2025-011;Stonebridge Apartments;"[""Office""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""]";1232;322784;121968;133056;35728;109648;65296;56672;33264;6160;9856;262;99;108;29;89;53;46;27;5;8</t>
-  </si>
-  <si>
-    <t>PRJ-2025-012;Silverlake Offices;"[""Renovation""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Healthcare""]";1677;637260;176085;134160;40248;50310;110682;144222;55341;21801;35217;380;105;80;24;30;66;86;33;13;21</t>
-  </si>
-  <si>
-    <t>PRJ-2025-013;Brighton Retail Center;"[""Office""]";2419;686996;212872;341079;62894;133045;70151;128207;82246;24190;53218;284;88;141;26;55;29;53;34;10;22</t>
-  </si>
-  <si>
-    <t>PRJ-2025-014;Westfield Logistics Park;"[""Renovation""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""]";3493;1379735;391216;216566;45409;265468;265468;289919;122255;48902;41916;395;112;62;13;76;76;83;35;14;12</t>
-  </si>
-  <si>
-    <t>PRJ-2025-015;Easton School Campus;"[""Residential""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Commercial""]";4137;1977486;239946;529536;140658;190302;115836;297864;103425;41370;53781;478;58;128;34;46;28;72;25;10;13</t>
-  </si>
-  <si>
-    <t>PRJ-2025-016;Kingston Medical Center;"[""Renovation""]";6266;2117908;745654;927368;100256;432354;281970;451152;187980;100256;119054;338;119;148;16;69;45;72;30;16;19</t>
-  </si>
-  <si>
-    <t>PRJ-2025-017;Ashford Hotel;"[""Renovation""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Mixed-Use""]";7447;2651132;580866;506396;148940;238304;424479;484055;126599;89364;37235;356;78;68;20;32;57;65;17;12;5</t>
-  </si>
-  <si>
-    <t>PRJ-2025-018;Meadowbrook Mixed-Use Complex;"[""Commercial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Industrial""]";9138;2247948;840696;630522;237588;548280;338106;657936;228450;100518;201036;246;92;69;26;60;37;72;25;11;22</t>
-  </si>
-  <si>
-    <t>PRJ-2025-019;Highland Civic Center;"[""Office""]";13588;6413536;1100628;1630560;475580;1114216;434816;489168;176644;244584;217408;472;81;120;35;82;32;36;13;18;16</t>
-  </si>
-  <si>
-    <t>PRJ-2025-020;Riverdale Innovation Hub;"[""Hospitality""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""New Build""]";15412;3960884;955544;1032604;339064;1125076;1094252;1310020;200356;184944;169532;257;62;67;22;73;71;85;13;12;11</t>
-  </si>
-  <si>
-    <t>PRJ-2025-021;Northgate Apartments;"[""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Renovation""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Mixed-Use""]";1115;497290;81395;105925;26760;68015;83625;99235;13380;21185;24530;446;73;95;24;61;75;89;12;19;22</t>
-  </si>
-  <si>
-    <t>PRJ-2025-022;Southport Offices;"[""Commercial""]";1645;832370;83895;116795;64155;98700;49350;92120;41125;32900;18095;506;51;71;39;60;30;56;25;20;11</t>
-  </si>
-  <si>
-    <t>PRJ-2025-023;Greenville Retail Center;"[""Hospitality""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""]";2244;951456;112200;244596;40392;197472;85272;127908;71808;44880;20196;424;50;109;18;88;38;57;32;20;9</t>
-  </si>
-  <si>
-    <t>PRJ-2025-024;Oakridge Logistics Park;"[""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""New Build""]";2939;1490073;167523;293900;32329;105804;167523;176340;76414;29390;17634;507;57;100;11;36;57;60;26;10;6</t>
-  </si>
-  <si>
-    <t>PRJ-2025-025;Clearwater School Campus;"[""Renovation""]";4132;1342900;239656;561952;49584;247920;185940;152884;165280;49584;95036;325;58;136;12;60;45;37;40;12;23</t>
-  </si>
-  <si>
-    <t>PRJ-2025-026;Bayview Medical Center;"[""New Build""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Residential""]";5567;2471748;645772;556700;217113;350721;183711;400824;178144;83505;66804;444;116;100;39;63;33;72;32;15;12</t>
-  </si>
-  <si>
-    <t>PRJ-2025-027;Springfield Hotel;"[""Education""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Office""]";8575;3284225;926100;857500;334425;334425;171500;505925;248675;68600;60025;383;108;100;39;39;20;59;29;8;7</t>
-  </si>
-  <si>
-    <t>PRJ-2025-028;Summerville Mixed-Use Complex;"[""Renovation""]";9436;4614204;783188;717136;368004;698264;717136;320824;358568;113232;150976;489;83;76;39;74;76;34;38;12;16</t>
-  </si>
-  <si>
-    <t>PRJ-2025-029;Parkside Civic Center;"[""Education""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Office""]";13044;6626352;1147872;1800072;456540;1265268;260880;939168;469584;182616;104352;508;88;138;35;97;20;72;36;14;8</t>
-  </si>
-  <si>
-    <t>PRJ-2025-030;Union Square Innovation Hub;"[""Office""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Commercial""]";13938;7150194;961722;1310172;264822;780528;905970;710838;223008;181194;292698;513;69;94;19;56;65;51;16;13;21</t>
-  </si>
-  <si>
-    <t>PRJ-2025-031;Harbor Point Apartments;"[""Mixed-Use""]";1144;292864;69784;161304;26312;74360;25168;34320;22880;10296;28600;256;61;141;23;65;22;30;20;9;25</t>
-  </si>
-  <si>
-    <t>PRJ-2025-032;Canyon Ridge Offices;"[""Education""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Office""]";1846;945152;191984;241826;18460;81224;44304;166140;70148;16614;40612;512;104;131;10;44;24;90;38;9;22</t>
-  </si>
-  <si>
-    <t>PRJ-2025-033;Elmwood Retail Center;"[""Residential""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Healthcare""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Office""]";2380;702100;130900;235620;49980;83300;183260;123760;38080;28560;19040;295;55;99;21;35;77;52;16;12;8</t>
-  </si>
-  <si>
-    <t>PRJ-2025-034;Forest Hills Logistics Park;"[""Healthcare""]";3453;1512414;238257;310770;127761;172650;245163;279693;51795;62154;17265;438;69;90;37;50;71;81;15;18;5</t>
-  </si>
-  <si>
-    <t>PRJ-2025-035;Glenhaven School Campus;"[""Office""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Healthcare""]";4851;2134440;392931;455994;72765;208593;213444;412335;53361;97020;58212;440;81;94;15;43;44;85;11;20;12</t>
-  </si>
-  <si>
-    <t>PRJ-2025-036;Harborside Medical Center;"[""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Mixed-Use""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Healthcare""]";6025;2084650;469950;379575;186775;325350;271125;307275;108450;42175;78325;346;78;63;31;54;45;51;18;7;13</t>
-  </si>
-  <si>
-    <t>PRJ-2025-037;Inverness Hotel;"[""Healthcare""]";8513;4171370;859813;1242898;306468;834274;349033;766170;85130;68104;110669;490;101;146;36;98;41;90;10;8;13</t>
-  </si>
-  <si>
-    <t>PRJ-2025-038;Kingsley Mixed-Use Complex;"[""Office""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Education""]";9078;2587230;953190;944112;299574;635460;426666;617304;236028;72624;154326;285;105;104;33;70;47;68;26;8;17</t>
-  </si>
-  <si>
-    <t>PRJ-2025-039;Lakeview Civic Center;"[""New Build""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Education""]";11431;5178243;571550;1440306;445809;1120238;720153;868756;457240;125741;182896;453;50;126;39;98;63;76;40;11;16</t>
-  </si>
-  <si>
-    <t>PRJ-2025-040;Millstone Innovation Hub;"[""Hospitality""]";13786;5500614;1240740;1985184;510082;620370;909876;1199382;261934;193004;248148;399;90;144;37;45;66;87;19;14;18</t>
-  </si>
-  <si>
-    <t>PRJ-2025-041;Northfield Apartments;"[""Healthcare""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""]";1258;479298;150960;95608;20128;104414;77996;113220;27676;12580;30192;381;120;76;16;83;62;90;22;10;24</t>
-  </si>
-  <si>
-    <t>PRJ-2025-042;Oak Meadows Offices;"[""New Build""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""]";1900;437000;167200;182400;30400;161500;133000;127300;55100;28500;36100;230;88;96;16;85;70;67;29;15;19</t>
-  </si>
-  <si>
-    <t>PRJ-2025-043;Quarry Park Retail Center;"[""Mixed-Use""]";2386;808854;274390;286320;83510;121686;147932;83510;45334;35790;16702;339;115;120;35;51;62;35;19;15;7</t>
-  </si>
-  <si>
-    <t>PRJ-2025-044;Redwood Logistics Park;"[""Industrial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Education""]";3110;1029410;211480;195930;34210;189710;155500;214590;115070;21770;59090;331;68;63;11;61;50;69;37;7;19</t>
-  </si>
-  <si>
-    <t>PRJ-2025-045;Sunnyvale School Campus;"[""Hospitality""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""New Build""]";4556;1977304;369036;355368;136680;136680;350812;355368;168572;36448;82008;434;81;78;30;30;77;78;37;8;18</t>
-  </si>
-  <si>
-    <t>PRJ-2025-046;Timberline Medical Center;"[""Industrial""]";5760;2851200;627840;380160;155520;351360;449280;483840;74880;109440;51840;495;109;66;27;61;78;84;13;19;9</t>
-  </si>
-  <si>
-    <t>PRJ-2025-047;Uptown Hotel;"[""Mixed-Use""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Renovation""]";8344;3270848;884464;1151472;300384;784336;392168;692552;325416;158536;83440;392;106;138;36;94;47;83;39;19;10</t>
-  </si>
-  <si>
-    <t>PRJ-2025-048;Valley Forge Mixed-Use Complex;"[""Mixed-Use""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""New Build""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Education""]";10539;3751884;895815;1327914;263475;632340;389943;611262;126468;147546;126468;356;85;126;25;60;37;58;12;14;12</t>
-  </si>
-  <si>
-    <t>PRJ-2025-049;Wellington Civic Center;"[""Education""]";12625;4961625;1502375;883750;176750;618625;429250;681750;404000;113625;138875;393;119;70;14;49;34;54;32;9;11</t>
-  </si>
-  <si>
-    <t>PRJ-2025-050;Yorktown Innovation Hub;"[""Commercial""</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""Hospitality""]";15169;6052431;1805111;1805111;348887;561253;500577;1259027;348887;257873;348887;399;119;119;23;37;33;83;23;17;23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+  <si>
+    <t>Project ID: string</t>
+  </si>
+  <si>
+    <t>Project Title: string</t>
+  </si>
+  <si>
+    <t>Project Types (JSONB): JSON List of Types</t>
+  </si>
+  <si>
+    <t>Total area integer in square meters</t>
+  </si>
+  <si>
+    <t>Total Costs KG220  in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG410 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG420 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG434 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG430 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG440 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG450 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG460 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG480 in Euro</t>
+  </si>
+  <si>
+    <t>Total Costs KG550 in Euro</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG220  in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG410 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG420 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG434 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG430 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG440 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG450 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG460 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG480 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>Costs per square meter KG550 in Euro per square meter</t>
+  </si>
+  <si>
+    <t>PRJ-2025-001</t>
+  </si>
+  <si>
+    <t>Riverview Apartments</t>
+  </si>
+  <si>
+    <t>["Commercial"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-002</t>
+  </si>
+  <si>
+    <t>Maplewood Offices</t>
+  </si>
+  <si>
+    <t>["Hospitality"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-003</t>
+  </si>
+  <si>
+    <t>Lakeside Retail Center</t>
+  </si>
+  <si>
+    <t>["Mixed-Use"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-004</t>
+  </si>
+  <si>
+    <t>Grand Oak Logistics Park</t>
+  </si>
+  <si>
+    <t>["Hospitality"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-005</t>
+  </si>
+  <si>
+    <t>Cedar Grove School Campus</t>
+  </si>
+  <si>
+    <t>["Commercial"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-006</t>
+  </si>
+  <si>
+    <t>Hillcrest Medical Center</t>
+  </si>
+  <si>
+    <t>["Industrial"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-007</t>
+  </si>
+  <si>
+    <t>Brookfield Hotel</t>
+  </si>
+  <si>
+    <t>["Office"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-008</t>
+  </si>
+  <si>
+    <t>Fairview Mixed-Use Complex</t>
+  </si>
+  <si>
+    <t>["Residential"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-009</t>
+  </si>
+  <si>
+    <t>Pinecrest Civic Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-010</t>
+  </si>
+  <si>
+    <t>Willow Springs Innovation Hub</t>
+  </si>
+  <si>
+    <t>PRJ-2025-011</t>
+  </si>
+  <si>
+    <t>Stonebridge Apartments</t>
+  </si>
+  <si>
+    <t>["Office"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-012</t>
+  </si>
+  <si>
+    <t>Silverlake Offices</t>
+  </si>
+  <si>
+    <t>["Renovation"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-013</t>
+  </si>
+  <si>
+    <t>Brighton Retail Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-014</t>
+  </si>
+  <si>
+    <t>Westfield Logistics Park</t>
+  </si>
+  <si>
+    <t>PRJ-2025-015</t>
+  </si>
+  <si>
+    <t>Easton School Campus</t>
+  </si>
+  <si>
+    <t>PRJ-2025-016</t>
+  </si>
+  <si>
+    <t>Kingston Medical Center</t>
+  </si>
+  <si>
+    <t>["Renovation"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-017</t>
+  </si>
+  <si>
+    <t>Ashford Hotel</t>
+  </si>
+  <si>
+    <t>PRJ-2025-018</t>
+  </si>
+  <si>
+    <t>Meadowbrook Mixed-Use Complex</t>
+  </si>
+  <si>
+    <t>PRJ-2025-019</t>
+  </si>
+  <si>
+    <t>Highland Civic Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-020</t>
+  </si>
+  <si>
+    <t>Riverdale Innovation Hub</t>
+  </si>
+  <si>
+    <t>PRJ-2025-021</t>
+  </si>
+  <si>
+    <t>Northgate Apartments</t>
+  </si>
+  <si>
+    <t>PRJ-2025-022</t>
+  </si>
+  <si>
+    <t>Southport Offices</t>
+  </si>
+  <si>
+    <t>PRJ-2025-023</t>
+  </si>
+  <si>
+    <t>Greenville Retail Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-024</t>
+  </si>
+  <si>
+    <t>Oakridge Logistics Park</t>
+  </si>
+  <si>
+    <t>PRJ-2025-025</t>
+  </si>
+  <si>
+    <t>Clearwater School Campus</t>
+  </si>
+  <si>
+    <t>PRJ-2025-026</t>
+  </si>
+  <si>
+    <t>Bayview Medical Center</t>
+  </si>
+  <si>
+    <t>["New Build"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-027</t>
+  </si>
+  <si>
+    <t>Springfield Hotel</t>
+  </si>
+  <si>
+    <t>["Education"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-028</t>
+  </si>
+  <si>
+    <t>Summerville Mixed-Use Complex</t>
+  </si>
+  <si>
+    <t>PRJ-2025-029</t>
+  </si>
+  <si>
+    <t>Parkside Civic Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-030</t>
+  </si>
+  <si>
+    <t>Union Square Innovation Hub</t>
+  </si>
+  <si>
+    <t>PRJ-2025-031</t>
+  </si>
+  <si>
+    <t>Harbor Point Apartments</t>
+  </si>
+  <si>
+    <t>["Mixed-Use"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-032</t>
+  </si>
+  <si>
+    <t>Canyon Ridge Offices</t>
+  </si>
+  <si>
+    <t>PRJ-2025-033</t>
+  </si>
+  <si>
+    <t>Elmwood Retail Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-034</t>
+  </si>
+  <si>
+    <t>Forest Hills Logistics Park</t>
+  </si>
+  <si>
+    <t>["Healthcare"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-035</t>
+  </si>
+  <si>
+    <t>Glenhaven School Campus</t>
+  </si>
+  <si>
+    <t>PRJ-2025-036</t>
+  </si>
+  <si>
+    <t>Harborside Medical Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-037</t>
+  </si>
+  <si>
+    <t>Inverness Hotel</t>
+  </si>
+  <si>
+    <t>PRJ-2025-038</t>
+  </si>
+  <si>
+    <t>Kingsley Mixed-Use Complex</t>
+  </si>
+  <si>
+    <t>PRJ-2025-039</t>
+  </si>
+  <si>
+    <t>Lakeview Civic Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-040</t>
+  </si>
+  <si>
+    <t>Millstone Innovation Hub</t>
+  </si>
+  <si>
+    <t>PRJ-2025-041</t>
+  </si>
+  <si>
+    <t>Northfield Apartments</t>
+  </si>
+  <si>
+    <t>["Healthcare"</t>
+  </si>
+  <si>
+    <t>PRJ-2025-042</t>
+  </si>
+  <si>
+    <t>Oak Meadows Offices</t>
+  </si>
+  <si>
+    <t>PRJ-2025-043</t>
+  </si>
+  <si>
+    <t>Quarry Park Retail Center</t>
+  </si>
+  <si>
+    <t>PRJ-2025-044</t>
+  </si>
+  <si>
+    <t>Redwood Logistics Park</t>
+  </si>
+  <si>
+    <t>PRJ-2025-045</t>
+  </si>
+  <si>
+    <t>Sunnyvale School Campus</t>
+  </si>
+  <si>
+    <t>PRJ-2025-046</t>
+  </si>
+  <si>
+    <t>Timberline Medical Center</t>
+  </si>
+  <si>
+    <t>["Industrial"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-047</t>
+  </si>
+  <si>
+    <t>Uptown Hotel</t>
+  </si>
+  <si>
+    <t>PRJ-2025-048</t>
+  </si>
+  <si>
+    <t>Valley Forge Mixed-Use Complex</t>
+  </si>
+  <si>
+    <t>PRJ-2025-049</t>
+  </si>
+  <si>
+    <t>Wellington Civic Center</t>
+  </si>
+  <si>
+    <t>["Education"]</t>
+  </si>
+  <si>
+    <t>PRJ-2025-050</t>
+  </si>
+  <si>
+    <t>Yorktown Innovation Hub</t>
   </si>
 </sst>
 </file>
@@ -1142,414 +1289,1716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DF5E3B-18AD-42D6-91EF-5D4906663CFF}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1086</v>
+      </c>
+      <c r="E2">
+        <v>401820</v>
+      </c>
+      <c r="F2">
+        <v>87966</v>
+      </c>
+      <c r="G2">
+        <v>95568</v>
+      </c>
+      <c r="H2">
+        <v>15204</v>
+      </c>
+      <c r="I2">
+        <v>46698</v>
+      </c>
+      <c r="J2">
+        <v>68418</v>
+      </c>
+      <c r="K2">
+        <v>83622</v>
+      </c>
+      <c r="L2">
+        <v>41268</v>
+      </c>
+      <c r="M2">
+        <v>7602</v>
+      </c>
+      <c r="N2">
+        <v>24978</v>
+      </c>
+      <c r="O2">
+        <v>370</v>
+      </c>
+      <c r="P2">
+        <v>81</v>
+      </c>
+      <c r="Q2">
+        <v>88</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>43</v>
+      </c>
+      <c r="T2">
+        <v>63</v>
+      </c>
+      <c r="U2">
+        <v>77</v>
+      </c>
+      <c r="V2">
+        <v>38</v>
+      </c>
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>2979</v>
+      </c>
+      <c r="E5">
+        <v>1230327</v>
+      </c>
+      <c r="F5">
+        <v>280026</v>
+      </c>
+      <c r="G5">
+        <v>408123</v>
+      </c>
+      <c r="H5">
+        <v>53622</v>
+      </c>
+      <c r="I5">
+        <v>104265</v>
+      </c>
+      <c r="J5">
+        <v>196614</v>
+      </c>
+      <c r="K5">
+        <v>175761</v>
+      </c>
+      <c r="L5">
+        <v>80433</v>
+      </c>
+      <c r="M5">
+        <v>23832</v>
+      </c>
+      <c r="N5">
+        <v>50643</v>
+      </c>
+      <c r="O5">
+        <v>413</v>
+      </c>
+      <c r="P5">
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>137</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>35</v>
+      </c>
+      <c r="T5">
+        <v>66</v>
+      </c>
+      <c r="U5">
+        <v>59</v>
+      </c>
+      <c r="V5">
+        <v>27</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>8293</v>
+      </c>
+      <c r="E8">
+        <v>2944015</v>
+      </c>
+      <c r="F8">
+        <v>580510</v>
+      </c>
+      <c r="G8">
+        <v>986867</v>
+      </c>
+      <c r="H8">
+        <v>182446</v>
+      </c>
+      <c r="I8">
+        <v>530752</v>
+      </c>
+      <c r="J8">
+        <v>655147</v>
+      </c>
+      <c r="K8">
+        <v>580510</v>
+      </c>
+      <c r="L8">
+        <v>265376</v>
+      </c>
+      <c r="M8">
+        <v>99516</v>
+      </c>
+      <c r="N8">
+        <v>124395</v>
+      </c>
+      <c r="O8">
+        <v>355</v>
+      </c>
+      <c r="P8">
+        <v>70</v>
+      </c>
+      <c r="Q8">
+        <v>119</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+      <c r="S8">
+        <v>64</v>
+      </c>
+      <c r="T8">
+        <v>79</v>
+      </c>
+      <c r="U8">
+        <v>70</v>
+      </c>
+      <c r="V8">
+        <v>32</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>14982</v>
+      </c>
+      <c r="E11">
+        <v>5123844</v>
+      </c>
+      <c r="F11">
+        <v>1003794</v>
+      </c>
+      <c r="G11">
+        <v>1872750</v>
+      </c>
+      <c r="H11">
+        <v>374550</v>
+      </c>
+      <c r="I11">
+        <v>614262</v>
+      </c>
+      <c r="J11">
+        <v>1018776</v>
+      </c>
+      <c r="K11">
+        <v>494406</v>
+      </c>
+      <c r="L11">
+        <v>554334</v>
+      </c>
+      <c r="M11">
+        <v>119856</v>
+      </c>
+      <c r="N11">
+        <v>134838</v>
+      </c>
+      <c r="O11">
+        <v>342</v>
+      </c>
+      <c r="P11">
+        <v>67</v>
+      </c>
+      <c r="Q11">
+        <v>125</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>41</v>
+      </c>
+      <c r="T11">
+        <v>68</v>
+      </c>
+      <c r="U11">
+        <v>33</v>
+      </c>
+      <c r="V11">
+        <v>37</v>
+      </c>
+      <c r="W11">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="X11">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>2419</v>
+      </c>
+      <c r="E14">
+        <v>686996</v>
+      </c>
+      <c r="F14">
+        <v>212872</v>
+      </c>
+      <c r="G14">
+        <v>341079</v>
+      </c>
+      <c r="H14">
+        <v>62894</v>
+      </c>
+      <c r="I14">
+        <v>133045</v>
+      </c>
+      <c r="J14">
+        <v>70151</v>
+      </c>
+      <c r="K14">
+        <v>128207</v>
+      </c>
+      <c r="L14">
+        <v>82246</v>
+      </c>
+      <c r="M14">
+        <v>24190</v>
+      </c>
+      <c r="N14">
+        <v>53218</v>
+      </c>
+      <c r="O14">
+        <v>284</v>
+      </c>
+      <c r="P14">
+        <v>88</v>
+      </c>
+      <c r="Q14">
+        <v>141</v>
+      </c>
+      <c r="R14">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>55</v>
+      </c>
+      <c r="T14">
+        <v>29</v>
+      </c>
+      <c r="U14">
+        <v>53</v>
+      </c>
+      <c r="V14">
+        <v>34</v>
+      </c>
+      <c r="W14">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="X14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>6266</v>
+      </c>
+      <c r="E17">
+        <v>2117908</v>
+      </c>
+      <c r="F17">
+        <v>745654</v>
+      </c>
+      <c r="G17">
+        <v>927368</v>
+      </c>
+      <c r="H17">
+        <v>100256</v>
+      </c>
+      <c r="I17">
+        <v>432354</v>
+      </c>
+      <c r="J17">
+        <v>281970</v>
+      </c>
+      <c r="K17">
+        <v>451152</v>
+      </c>
+      <c r="L17">
+        <v>187980</v>
+      </c>
+      <c r="M17">
+        <v>100256</v>
+      </c>
+      <c r="N17">
+        <v>119054</v>
+      </c>
+      <c r="O17">
+        <v>338</v>
+      </c>
+      <c r="P17">
+        <v>119</v>
+      </c>
+      <c r="Q17">
+        <v>148</v>
+      </c>
+      <c r="R17">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <v>69</v>
+      </c>
+      <c r="T17">
+        <v>45</v>
+      </c>
+      <c r="U17">
+        <v>72</v>
+      </c>
+      <c r="V17">
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>16</v>
+      </c>
+      <c r="X17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>13588</v>
+      </c>
+      <c r="E20">
+        <v>6413536</v>
+      </c>
+      <c r="F20">
+        <v>1100628</v>
+      </c>
+      <c r="G20">
+        <v>1630560</v>
+      </c>
+      <c r="H20">
+        <v>475580</v>
+      </c>
+      <c r="I20">
+        <v>1114216</v>
+      </c>
+      <c r="J20">
+        <v>434816</v>
+      </c>
+      <c r="K20">
+        <v>489168</v>
+      </c>
+      <c r="L20">
+        <v>176644</v>
+      </c>
+      <c r="M20">
+        <v>244584</v>
+      </c>
+      <c r="N20">
+        <v>217408</v>
+      </c>
+      <c r="O20">
+        <v>472</v>
+      </c>
+      <c r="P20">
+        <v>81</v>
+      </c>
+      <c r="Q20">
+        <v>120</v>
+      </c>
+      <c r="R20">
+        <v>35</v>
+      </c>
+      <c r="S20">
+        <v>82</v>
+      </c>
+      <c r="T20">
+        <v>32</v>
+      </c>
+      <c r="U20">
+        <v>36</v>
+      </c>
+      <c r="V20">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>1645</v>
+      </c>
+      <c r="E23">
+        <v>832370</v>
+      </c>
+      <c r="F23">
+        <v>83895</v>
+      </c>
+      <c r="G23">
+        <v>116795</v>
+      </c>
+      <c r="H23">
+        <v>64155</v>
+      </c>
+      <c r="I23">
+        <v>98700</v>
+      </c>
+      <c r="J23">
+        <v>49350</v>
+      </c>
+      <c r="K23">
+        <v>92120</v>
+      </c>
+      <c r="L23">
+        <v>41125</v>
+      </c>
+      <c r="M23">
+        <v>32900</v>
+      </c>
+      <c r="N23">
+        <v>18095</v>
+      </c>
+      <c r="O23">
+        <v>506</v>
+      </c>
+      <c r="P23">
+        <v>51</v>
+      </c>
+      <c r="Q23">
+        <v>71</v>
+      </c>
+      <c r="R23">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>60</v>
+      </c>
+      <c r="T23">
+        <v>30</v>
+      </c>
+      <c r="U23">
+        <v>56</v>
+      </c>
+      <c r="V23">
+        <v>25</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <v>4132</v>
+      </c>
+      <c r="E26">
+        <v>1342900</v>
+      </c>
+      <c r="F26">
+        <v>239656</v>
+      </c>
+      <c r="G26">
+        <v>561952</v>
+      </c>
+      <c r="H26">
+        <v>49584</v>
+      </c>
+      <c r="I26">
+        <v>247920</v>
+      </c>
+      <c r="J26">
+        <v>185940</v>
+      </c>
+      <c r="K26">
+        <v>152884</v>
+      </c>
+      <c r="L26">
+        <v>165280</v>
+      </c>
+      <c r="M26">
+        <v>49584</v>
+      </c>
+      <c r="N26">
+        <v>95036</v>
+      </c>
+      <c r="O26">
+        <v>325</v>
+      </c>
+      <c r="P26">
+        <v>58</v>
+      </c>
+      <c r="Q26">
+        <v>136</v>
+      </c>
+      <c r="R26">
+        <v>12</v>
+      </c>
+      <c r="S26">
+        <v>60</v>
+      </c>
+      <c r="T26">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="U26">
+        <v>37</v>
+      </c>
+      <c r="V26">
+        <v>40</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>9436</v>
+      </c>
+      <c r="E29">
+        <v>4614204</v>
+      </c>
+      <c r="F29">
+        <v>783188</v>
+      </c>
+      <c r="G29">
+        <v>717136</v>
+      </c>
+      <c r="H29">
+        <v>368004</v>
+      </c>
+      <c r="I29">
+        <v>698264</v>
+      </c>
+      <c r="J29">
+        <v>717136</v>
+      </c>
+      <c r="K29">
+        <v>320824</v>
+      </c>
+      <c r="L29">
+        <v>358568</v>
+      </c>
+      <c r="M29">
+        <v>113232</v>
+      </c>
+      <c r="N29">
+        <v>150976</v>
+      </c>
+      <c r="O29">
+        <v>489</v>
+      </c>
+      <c r="P29">
+        <v>83</v>
+      </c>
+      <c r="Q29">
+        <v>76</v>
+      </c>
+      <c r="R29">
+        <v>39</v>
+      </c>
+      <c r="S29">
+        <v>74</v>
+      </c>
+      <c r="T29">
+        <v>76</v>
+      </c>
+      <c r="U29">
+        <v>34</v>
+      </c>
+      <c r="V29">
+        <v>38</v>
+      </c>
+      <c r="W29">
+        <v>12</v>
+      </c>
+      <c r="X29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>1144</v>
+      </c>
+      <c r="E32">
+        <v>292864</v>
+      </c>
+      <c r="F32">
+        <v>69784</v>
+      </c>
+      <c r="G32">
+        <v>161304</v>
+      </c>
+      <c r="H32">
+        <v>26312</v>
+      </c>
+      <c r="I32">
+        <v>74360</v>
+      </c>
+      <c r="J32">
+        <v>25168</v>
+      </c>
+      <c r="K32">
+        <v>34320</v>
+      </c>
+      <c r="L32">
+        <v>22880</v>
+      </c>
+      <c r="M32">
+        <v>10296</v>
+      </c>
+      <c r="N32">
+        <v>28600</v>
+      </c>
+      <c r="O32">
+        <v>256</v>
+      </c>
+      <c r="P32">
+        <v>61</v>
+      </c>
+      <c r="Q32">
+        <v>141</v>
+      </c>
+      <c r="R32">
+        <v>23</v>
+      </c>
+      <c r="S32">
+        <v>65</v>
+      </c>
+      <c r="T32">
+        <v>22</v>
+      </c>
+      <c r="U32">
+        <v>30</v>
+      </c>
+      <c r="V32">
+        <v>20</v>
+      </c>
+      <c r="W32">
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>3453</v>
+      </c>
+      <c r="E35">
+        <v>1512414</v>
+      </c>
+      <c r="F35">
+        <v>238257</v>
+      </c>
+      <c r="G35">
+        <v>310770</v>
+      </c>
+      <c r="H35">
+        <v>127761</v>
+      </c>
+      <c r="I35">
+        <v>172650</v>
+      </c>
+      <c r="J35">
+        <v>245163</v>
+      </c>
+      <c r="K35">
+        <v>279693</v>
+      </c>
+      <c r="L35">
+        <v>51795</v>
+      </c>
+      <c r="M35">
+        <v>62154</v>
+      </c>
+      <c r="N35">
+        <v>17265</v>
+      </c>
+      <c r="O35">
+        <v>438</v>
+      </c>
+      <c r="P35">
+        <v>69</v>
+      </c>
+      <c r="Q35">
+        <v>90</v>
+      </c>
+      <c r="R35">
+        <v>37</v>
+      </c>
+      <c r="S35">
+        <v>50</v>
+      </c>
+      <c r="T35">
+        <v>71</v>
+      </c>
+      <c r="U35">
+        <v>81</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+      <c r="W35">
+        <v>18</v>
+      </c>
+      <c r="X35">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38">
+        <v>8513</v>
+      </c>
+      <c r="E38">
+        <v>4171370</v>
+      </c>
+      <c r="F38">
+        <v>859813</v>
+      </c>
+      <c r="G38">
+        <v>1242898</v>
+      </c>
+      <c r="H38">
+        <v>306468</v>
+      </c>
+      <c r="I38">
+        <v>834274</v>
+      </c>
+      <c r="J38">
+        <v>349033</v>
+      </c>
+      <c r="K38">
+        <v>766170</v>
+      </c>
+      <c r="L38">
+        <v>85130</v>
+      </c>
+      <c r="M38">
+        <v>68104</v>
+      </c>
+      <c r="N38">
+        <v>110669</v>
+      </c>
+      <c r="O38">
+        <v>490</v>
+      </c>
+      <c r="P38">
+        <v>101</v>
+      </c>
+      <c r="Q38">
+        <v>146</v>
+      </c>
+      <c r="R38">
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <v>98</v>
+      </c>
+      <c r="T38">
+        <v>41</v>
+      </c>
+      <c r="U38">
+        <v>90</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>8</v>
+      </c>
+      <c r="X38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>13786</v>
+      </c>
+      <c r="E41">
+        <v>5500614</v>
+      </c>
+      <c r="F41">
+        <v>1240740</v>
+      </c>
+      <c r="G41">
+        <v>1985184</v>
+      </c>
+      <c r="H41">
+        <v>510082</v>
+      </c>
+      <c r="I41">
+        <v>620370</v>
+      </c>
+      <c r="J41">
+        <v>909876</v>
+      </c>
+      <c r="K41">
+        <v>1199382</v>
+      </c>
+      <c r="L41">
+        <v>261934</v>
+      </c>
+      <c r="M41">
+        <v>193004</v>
+      </c>
+      <c r="N41">
+        <v>248148</v>
+      </c>
+      <c r="O41">
+        <v>399</v>
+      </c>
+      <c r="P41">
+        <v>90</v>
+      </c>
+      <c r="Q41">
+        <v>144</v>
+      </c>
+      <c r="R41">
+        <v>37</v>
+      </c>
+      <c r="S41">
+        <v>45</v>
+      </c>
+      <c r="T41">
+        <v>66</v>
+      </c>
+      <c r="U41">
+        <v>87</v>
+      </c>
+      <c r="V41">
+        <v>19</v>
+      </c>
+      <c r="W41">
+        <v>14</v>
+      </c>
+      <c r="X41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>2386</v>
+      </c>
+      <c r="E44">
+        <v>808854</v>
+      </c>
+      <c r="F44">
+        <v>274390</v>
+      </c>
+      <c r="G44">
+        <v>286320</v>
+      </c>
+      <c r="H44">
+        <v>83510</v>
+      </c>
+      <c r="I44">
+        <v>121686</v>
+      </c>
+      <c r="J44">
+        <v>147932</v>
+      </c>
+      <c r="K44">
+        <v>83510</v>
+      </c>
+      <c r="L44">
+        <v>45334</v>
+      </c>
+      <c r="M44">
+        <v>35790</v>
+      </c>
+      <c r="N44">
+        <v>16702</v>
+      </c>
+      <c r="O44">
+        <v>339</v>
+      </c>
+      <c r="P44">
+        <v>115</v>
+      </c>
+      <c r="Q44">
+        <v>120</v>
+      </c>
+      <c r="R44">
+        <v>35</v>
+      </c>
+      <c r="S44">
+        <v>51</v>
+      </c>
+      <c r="T44">
+        <v>62</v>
+      </c>
+      <c r="U44">
+        <v>35</v>
+      </c>
+      <c r="V44">
+        <v>19</v>
+      </c>
+      <c r="W44">
+        <v>15</v>
+      </c>
+      <c r="X44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47">
+        <v>5760</v>
+      </c>
+      <c r="E47">
+        <v>2851200</v>
+      </c>
+      <c r="F47">
+        <v>627840</v>
+      </c>
+      <c r="G47">
+        <v>380160</v>
+      </c>
+      <c r="H47">
+        <v>155520</v>
+      </c>
+      <c r="I47">
+        <v>351360</v>
+      </c>
+      <c r="J47">
+        <v>449280</v>
+      </c>
+      <c r="K47">
+        <v>483840</v>
+      </c>
+      <c r="L47">
+        <v>74880</v>
+      </c>
+      <c r="M47">
+        <v>109440</v>
+      </c>
+      <c r="N47">
+        <v>51840</v>
+      </c>
+      <c r="O47">
+        <v>495</v>
+      </c>
+      <c r="P47">
+        <v>109</v>
+      </c>
+      <c r="Q47">
+        <v>66</v>
+      </c>
+      <c r="R47">
+        <v>27</v>
+      </c>
+      <c r="S47">
+        <v>61</v>
+      </c>
+      <c r="T47">
+        <v>78</v>
+      </c>
+      <c r="U47">
+        <v>84</v>
+      </c>
+      <c r="V47">
+        <v>13</v>
+      </c>
+      <c r="W47">
+        <v>19</v>
+      </c>
+      <c r="X47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50">
+        <v>12625</v>
+      </c>
+      <c r="E50">
+        <v>4961625</v>
+      </c>
+      <c r="F50">
+        <v>1502375</v>
+      </c>
+      <c r="G50">
+        <v>883750</v>
+      </c>
+      <c r="H50">
+        <v>176750</v>
+      </c>
+      <c r="I50">
+        <v>618625</v>
+      </c>
+      <c r="J50">
+        <v>429250</v>
+      </c>
+      <c r="K50">
+        <v>681750</v>
+      </c>
+      <c r="L50">
+        <v>404000</v>
+      </c>
+      <c r="M50">
+        <v>113625</v>
+      </c>
+      <c r="N50">
+        <v>138875</v>
+      </c>
+      <c r="O50">
+        <v>393</v>
+      </c>
+      <c r="P50">
+        <v>119</v>
+      </c>
+      <c r="Q50">
+        <v>70</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="T50">
+        <v>34</v>
+      </c>
+      <c r="U50">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="V50">
+        <v>32</v>
+      </c>
+      <c r="W50">
+        <v>9</v>
+      </c>
+      <c r="X50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
